--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 12.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 12.xlsx_with_dialog_acts.xlsx
@@ -939,12 +939,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1335,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2307,12 +2307,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
